--- a/data/trans_dic/P11_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P11_R2-Edad-trans_dic.xlsx
@@ -708,38 +708,38 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.001908192845620739</v>
+        <v>0.001942477816491826</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.002057699540749731</v>
+        <v>0.002091472856269118</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
-        <v>0.002117027330041083</v>
+        <v>0.00215447997136708</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0119218019318054</v>
+        <v>0.01146120674741014</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.002094467953456162</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.007027898030985144</v>
+        <v>0.009327286463322702</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.003814158391733307</v>
+        <v>0.003770647699264538</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.008961235109376707</v>
+        <v>0.009976243507168603</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.002230288363971697</v>
+        <v>0.001348191303584241</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.003096585666054766</v>
+        <v>0.003133598022525385</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01861315382553694</v>
+        <v>0.01876912721406323</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02250844271559514</v>
+        <v>0.02279516121915798</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0179633643635107</v>
+        <v>0.0179749255555406</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.01882012437021106</v>
+        <v>0.01940749554038889</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04183808299871505</v>
+        <v>0.04155074151637139</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01934316599076676</v>
+        <v>0.0198599985088644</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07273541328977624</v>
+        <v>0.06678399098912786</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01490444089961355</v>
+        <v>0.01569524690125712</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02705904379984486</v>
+        <v>0.02705042375473631</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01337178527114504</v>
+        <v>0.0126975533989152</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02983835293654724</v>
+        <v>0.03250285777566019</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>0.03152836053783302</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.02915919557376577</v>
+        <v>0.02915919557376576</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.02215624039518076</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01110549663488039</v>
+        <v>0.01151278377119994</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.009713516991001122</v>
+        <v>0.009919848274132064</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.008847794170807236</v>
+        <v>0.008687503932935166</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02609645111382937</v>
+        <v>0.02447406955399344</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01350947492767751</v>
+        <v>0.01379713323599375</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.006343627764747224</v>
+        <v>0.007522191797035993</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01958483630292172</v>
+        <v>0.01878180232613397</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01625433417597061</v>
+        <v>0.01570984266500994</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01519176325273311</v>
+        <v>0.01522130206934597</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01080296014054795</v>
+        <v>0.009311468561868742</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0165693002335365</v>
+        <v>0.01584256551963643</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0237351657634017</v>
+        <v>0.02521889841998655</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03496708497241861</v>
+        <v>0.03408840102982269</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03373894570994972</v>
+        <v>0.03191702816275105</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03385512622485917</v>
+        <v>0.03299274268029304</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07388261631115783</v>
+        <v>0.07228218019045356</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0397576055600426</v>
+        <v>0.03835076883761179</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02818929316782766</v>
+        <v>0.02920091360433635</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05063951209897217</v>
+        <v>0.04812701662234947</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04737488526797444</v>
+        <v>0.04970153208978258</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03151832409514782</v>
+        <v>0.0324995608982381</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02582535251839273</v>
+        <v>0.02429645075368814</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03610013175898835</v>
+        <v>0.03538706032019162</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05232497663226413</v>
+        <v>0.05163863892639748</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>0.03419940978868183</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.05825513871307571</v>
+        <v>0.0582551387130757</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.0216930401883849</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.008993555972038632</v>
+        <v>0.009964779634179671</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01494742439956326</v>
+        <v>0.01499278643182317</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01019605403477918</v>
+        <v>0.01032514142462529</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03301650145874577</v>
+        <v>0.03512309342416133</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0146125832935545</v>
+        <v>0.01449273838549383</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04046994387260117</v>
+        <v>0.04099847784813102</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02200434650572178</v>
+        <v>0.02266652557754488</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04345505862815349</v>
+        <v>0.04385541631568764</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01490739889422945</v>
+        <v>0.01450982632200936</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03082364117107034</v>
+        <v>0.03172725235962846</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01888611990375812</v>
+        <v>0.01951352301262184</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04249189413340448</v>
+        <v>0.04259053424223302</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03113158236734667</v>
+        <v>0.0329323303994185</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04102386740898598</v>
+        <v>0.03981867150577983</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03362137865955026</v>
+        <v>0.03306808881863856</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0700343879583766</v>
+        <v>0.07005143957689468</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03960620099050919</v>
+        <v>0.04003951892444199</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07708478440145451</v>
+        <v>0.07844034918344024</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05237435518854337</v>
+        <v>0.05173671991076776</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07486049226570934</v>
+        <v>0.07600551944815324</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03079101080417197</v>
+        <v>0.03162212763426506</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05366879588416157</v>
+        <v>0.05379969307643159</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03697727887543446</v>
+        <v>0.03715192141196605</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0665766706146643</v>
+        <v>0.06669546350463945</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.04986385910495636</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.08262973717832994</v>
+        <v>0.08262973717832993</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.04528208531067596</v>
@@ -1101,7 +1101,7 @@
         <v>0.05896799381859816</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.08589833038648145</v>
+        <v>0.08589833038648147</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01659571718758117</v>
+        <v>0.01692011017163769</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02920273631576502</v>
+        <v>0.02922297921341897</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0354805302437684</v>
+        <v>0.0336337620479229</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06449477350457604</v>
+        <v>0.06323586341443151</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02935894787740584</v>
+        <v>0.02981479509627663</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04230032588735843</v>
+        <v>0.04261032907502976</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04954562713995381</v>
+        <v>0.05003813436478666</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07260078024088934</v>
+        <v>0.07371143199478351</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02658649178050788</v>
+        <v>0.02586563778730499</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03896403052681637</v>
+        <v>0.04150155728627811</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04532313509076642</v>
+        <v>0.04676951363773987</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07333520631957292</v>
+        <v>0.07147153474265612</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04558381363978405</v>
+        <v>0.04445319766245121</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06428690634538003</v>
+        <v>0.06671820878222544</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07268549946067751</v>
+        <v>0.06974715611159571</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1077508135534678</v>
+        <v>0.1089982989980601</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06511120715969554</v>
+        <v>0.0679567144668921</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08290308058153815</v>
+        <v>0.08454614775378991</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09022975722904619</v>
+        <v>0.09043134700951841</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1066925206571717</v>
+        <v>0.1065476190872827</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05028601115398534</v>
+        <v>0.04854354168334164</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06623547710210516</v>
+        <v>0.06909040609532424</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07284550499962592</v>
+        <v>0.07403585970048339</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09981239868326042</v>
+        <v>0.1002317722604895</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03379066021828643</v>
+        <v>0.03400143649381857</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04406378372614866</v>
+        <v>0.04432244329157883</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02637781099845316</v>
+        <v>0.02719434384260365</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1062468421731733</v>
+        <v>0.1070169998150484</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0391754010223195</v>
+        <v>0.04098837308857982</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.104925594782303</v>
+        <v>0.1042028939588283</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1013201175603971</v>
+        <v>0.1001933759031433</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1270499031659724</v>
+        <v>0.1253712481142928</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04215395858377478</v>
+        <v>0.0427658709999743</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.08137715175041114</v>
+        <v>0.08337934908104726</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.06804864555173801</v>
+        <v>0.06982899556055169</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1223574366358891</v>
+        <v>0.1225304709528865</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07853546782350181</v>
+        <v>0.07782780022270178</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09224919543674458</v>
+        <v>0.09336231273479521</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06615112912407116</v>
+        <v>0.06523714725932966</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.159108352921855</v>
+        <v>0.1592205473589399</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08646935675828235</v>
+        <v>0.08809929906428811</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1727507611345636</v>
+        <v>0.1690349140121297</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1642243051800593</v>
+        <v>0.1646579108079103</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1710654427410572</v>
+        <v>0.1682174198160751</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0769979024886028</v>
+        <v>0.07329127139381396</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1225619403594168</v>
+        <v>0.1244771074094227</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1089073376323122</v>
+        <v>0.1088071844054775</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1571326193543828</v>
+        <v>0.1562346807649692</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>0.1523937869625606</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1626645103785994</v>
+        <v>0.1626645103785993</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.09302548641376293</v>
@@ -1373,7 +1373,7 @@
         <v>0.1139097254145184</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.1265726965510999</v>
+        <v>0.1265726965510998</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.04507260815547977</v>
+        <v>0.04483158867009253</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06810524089666127</v>
+        <v>0.07196094355749755</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04578364334204518</v>
+        <v>0.0465372209840134</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.06859641092043603</v>
+        <v>0.06773759150767468</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.07949498554601364</v>
+        <v>0.08126044094917632</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1476846407205144</v>
+        <v>0.1505434298190435</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1134938823588505</v>
+        <v>0.1194813323128098</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1387972844590671</v>
+        <v>0.1385682313528263</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.07303492292095184</v>
+        <v>0.07075945316804914</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.125550035323065</v>
+        <v>0.1250582003913072</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.08991842605345139</v>
+        <v>0.09012017086760631</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1094548544678426</v>
+        <v>0.1103108271304198</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1100161854917331</v>
+        <v>0.1062422702539095</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1472299073939193</v>
+        <v>0.1512280062569357</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1049086733977581</v>
+        <v>0.1062266783049595</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1127974594347886</v>
+        <v>0.1131253702444394</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1440835560462897</v>
+        <v>0.1444902574930451</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2349891174486882</v>
+        <v>0.2381123912125989</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1919312568659569</v>
+        <v>0.19458452564417</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1888589437973606</v>
+        <v>0.1890442719227603</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1164513549506546</v>
+        <v>0.1160886768280847</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1879425033386267</v>
+        <v>0.1825764134831917</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1396025463979236</v>
+        <v>0.1395055111474519</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1433210431478512</v>
+        <v>0.1453765633479244</v>
       </c>
     </row>
     <row r="22">
@@ -1497,7 +1497,7 @@
         <v>0.2857654152631415</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.3865356458303612</v>
+        <v>0.3865356458303611</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.1503606153445917</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.09091763578095946</v>
+        <v>0.08919747512698227</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.151302282148997</v>
+        <v>0.1512794407641659</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1089541914869761</v>
+        <v>0.1059539865200839</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1431764497809844</v>
+        <v>0.1402379228939895</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1215437060184558</v>
+        <v>0.1246136755970638</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2779029876341249</v>
+        <v>0.2788185019559952</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2365974603755407</v>
+        <v>0.2311205072948737</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3533044355017371</v>
+        <v>0.3532862503582504</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1209581317177061</v>
+        <v>0.1206205277909826</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2413739140877618</v>
+        <v>0.2406448365619445</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1997674390730279</v>
+        <v>0.1988462367475468</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2762671847974641</v>
+        <v>0.275458365022112</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1795548556301889</v>
+        <v>0.1829614698178002</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2630815867789438</v>
+        <v>0.2612875349865377</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1892727550347109</v>
+        <v>0.186971457901806</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2114617834695775</v>
+        <v>0.2092149221647182</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2068512107838768</v>
+        <v>0.2090609622080666</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3750518960421024</v>
+        <v>0.3746146290171504</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3368151480619086</v>
+        <v>0.3376327513380302</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4204805011580537</v>
+        <v>0.4215835733187084</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1822988769096262</v>
+        <v>0.1837765338542557</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3167295785800235</v>
+        <v>0.3181042826892668</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2659471983992087</v>
+        <v>0.26680100878211</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3253982392451266</v>
+        <v>0.3284912124512553</v>
       </c>
     </row>
     <row r="25">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02951964134194695</v>
+        <v>0.02907678024919414</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.04273204408488152</v>
+        <v>0.04373249883008606</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.03482911346942774</v>
+        <v>0.03458501080628115</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.07029117548749465</v>
+        <v>0.07101535571182008</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.04438887615279032</v>
+        <v>0.04483233428417258</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.08911752629493422</v>
+        <v>0.08917548409767231</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.08130491345883166</v>
+        <v>0.08137765738361995</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1159251507301171</v>
+        <v>0.1166299673061607</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.03894189837299921</v>
+        <v>0.03906096170145536</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.06904813381496258</v>
+        <v>0.06913295357508145</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.06092423118503892</v>
+        <v>0.06061502222879609</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.0963542912579205</v>
+        <v>0.09676330791643149</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.04267059817343825</v>
+        <v>0.0417017611876492</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.05899237088344188</v>
+        <v>0.05996548669425562</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.04857821135948649</v>
+        <v>0.04869102937543862</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.08796790491231071</v>
+        <v>0.08874072557042276</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.05964776198267376</v>
+        <v>0.06002293027141101</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1091449138385561</v>
+        <v>0.108887025230179</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1024354668091481</v>
+        <v>0.1023725688368086</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1322513404187101</v>
+        <v>0.1344811845187305</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.04886617916244719</v>
+        <v>0.04917504851820129</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.08167479511650817</v>
+        <v>0.08274458088182093</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.0739373997854991</v>
+        <v>0.07373454442122625</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1086882462007622</v>
+        <v>0.1097450438869753</v>
       </c>
     </row>
     <row r="28">
@@ -2007,38 +2007,38 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>943</v>
+        <v>960</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>929</v>
+        <v>944</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="n">
-        <v>990</v>
+        <v>1007</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5129</v>
+        <v>4931</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>829</v>
+        <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2548</v>
+        <v>3381</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>3668</v>
+        <v>3626</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>7900</v>
+        <v>8795</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1808</v>
+        <v>1093</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>2385</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="7">
@@ -2049,38 +2049,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9196</v>
+        <v>9273</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>10159</v>
+        <v>10288</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7449</v>
+        <v>7454</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>8798</v>
+        <v>9073</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>18000</v>
+        <v>17876</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>7655</v>
+        <v>7860</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>26367</v>
+        <v>24210</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>14331</v>
+        <v>15092</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>23854</v>
+        <v>23847</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>10837</v>
+        <v>10291</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>22985</v>
+        <v>25037</v>
       </c>
     </row>
     <row r="8">
@@ -2183,40 +2183,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>8168</v>
+        <v>8468</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6622</v>
+        <v>6763</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5171</v>
+        <v>5078</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>12445</v>
+        <v>11671</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>8450</v>
+        <v>8630</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3865</v>
+        <v>4583</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>10982</v>
+        <v>10532</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>8145</v>
+        <v>7872</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>20676</v>
+        <v>20716</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>13947</v>
+        <v>12022</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>18975</v>
+        <v>18143</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>23212</v>
+        <v>24663</v>
       </c>
     </row>
     <row r="11">
@@ -2227,40 +2227,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>25718</v>
+        <v>25072</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>23002</v>
+        <v>21760</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>19787</v>
+        <v>19283</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>35234</v>
+        <v>34471</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>24868</v>
+        <v>23988</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>17175</v>
+        <v>17792</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>28396</v>
+        <v>26987</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>23739</v>
+        <v>24905</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>42896</v>
+        <v>44231</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>33342</v>
+        <v>31368</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>41342</v>
+        <v>40526</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>51172</v>
+        <v>50501</v>
       </c>
     </row>
     <row r="12">
@@ -2363,40 +2363,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5744</v>
+        <v>6364</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10148</v>
+        <v>10179</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6772</v>
+        <v>6858</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>20498</v>
+        <v>21806</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>10079</v>
+        <v>9996</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>28651</v>
+        <v>29025</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>14390</v>
+        <v>14823</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>27035</v>
+        <v>27284</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>19803</v>
+        <v>19275</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>42749</v>
+        <v>44002</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>24895</v>
+        <v>25722</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>52816</v>
+        <v>52939</v>
       </c>
     </row>
     <row r="15">
@@ -2407,40 +2407,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>19883</v>
+        <v>21033</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>27852</v>
+        <v>27034</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>22332</v>
+        <v>21965</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>43480</v>
+        <v>43491</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>27318</v>
+        <v>27617</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>54573</v>
+        <v>55532</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>34251</v>
+        <v>33834</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>46574</v>
+        <v>47286</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>40903</v>
+        <v>42007</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>74432</v>
+        <v>74614</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>48743</v>
+        <v>48973</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>82753</v>
+        <v>82901</v>
       </c>
     </row>
     <row r="16">
@@ -2543,40 +2543,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>8616</v>
+        <v>8784</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>17921</v>
+        <v>17934</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>22783</v>
+        <v>21597</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>45186</v>
+        <v>44304</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>15139</v>
+        <v>15374</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>26065</v>
+        <v>26256</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>32015</v>
+        <v>32333</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>53498</v>
+        <v>54317</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>27511</v>
+        <v>26765</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>47921</v>
+        <v>51042</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>58389</v>
+        <v>60253</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>105420</v>
+        <v>102741</v>
       </c>
     </row>
     <row r="19">
@@ -2587,40 +2587,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>23665</v>
+        <v>23078</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>39452</v>
+        <v>40944</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>46673</v>
+        <v>44786</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>75492</v>
+        <v>76366</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>33574</v>
+        <v>35041</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>51085</v>
+        <v>52097</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>58303</v>
+        <v>58434</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>78620</v>
+        <v>78513</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>52035</v>
+        <v>50232</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>81462</v>
+        <v>84973</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>93846</v>
+        <v>95380</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>143481</v>
+        <v>144084</v>
       </c>
     </row>
     <row r="20">
@@ -2723,40 +2723,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>13067</v>
+        <v>13149</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>18836</v>
+        <v>18946</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>12519</v>
+        <v>12907</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>64463</v>
+        <v>64930</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>15826</v>
+        <v>16559</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>46986</v>
+        <v>46662</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>49998</v>
+        <v>49442</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>77355</v>
+        <v>76333</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>33331</v>
+        <v>33815</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>71227</v>
+        <v>72979</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>65877</v>
+        <v>67601</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>148736</v>
+        <v>148946</v>
       </c>
     </row>
     <row r="23">
@@ -2767,40 +2767,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>30370</v>
+        <v>30097</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>39433</v>
+        <v>39909</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>31397</v>
+        <v>30963</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>96535</v>
+        <v>96604</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>34932</v>
+        <v>35591</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>77358</v>
+        <v>75694</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>81040</v>
+        <v>81254</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>104154</v>
+        <v>102420</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>60882</v>
+        <v>57951</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>107274</v>
+        <v>108950</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>105432</v>
+        <v>105335</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>191008</v>
+        <v>189916</v>
       </c>
     </row>
     <row r="24">
@@ -2903,40 +2903,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>13187</v>
+        <v>13117</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>21030</v>
+        <v>22221</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>15258</v>
+        <v>15510</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>27924</v>
+        <v>27575</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>27262</v>
+        <v>27867</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>52280</v>
+        <v>53292</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>42756</v>
+        <v>45012</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>60768</v>
+        <v>60668</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>46415</v>
+        <v>44969</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>83212</v>
+        <v>82886</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>63842</v>
+        <v>63985</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>92478</v>
+        <v>93201</v>
       </c>
     </row>
     <row r="27">
@@ -2947,40 +2947,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>32189</v>
+        <v>31085</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>45463</v>
+        <v>46697</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>34963</v>
+        <v>35402</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>45918</v>
+        <v>46051</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>49411</v>
+        <v>49551</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>83185</v>
+        <v>84291</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>72306</v>
+        <v>73305</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>82686</v>
+        <v>82767</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>74007</v>
+        <v>73776</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>124565</v>
+        <v>121008</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>99118</v>
+        <v>99049</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>121092</v>
+        <v>122828</v>
       </c>
     </row>
     <row r="28">
@@ -3083,40 +3083,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>19082</v>
+        <v>18721</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>37482</v>
+        <v>37477</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>27916</v>
+        <v>27147</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>44269</v>
+        <v>43361</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>40584</v>
+        <v>41610</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>108098</v>
+        <v>108455</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>93494</v>
+        <v>91330</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>163050</v>
+        <v>163041</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>65776</v>
+        <v>65592</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>153685</v>
+        <v>153221</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>130124</v>
+        <v>129524</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>212917</v>
+        <v>212294</v>
       </c>
     </row>
     <row r="31">
@@ -3127,40 +3127,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>37686</v>
+        <v>38401</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>65173</v>
+        <v>64729</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>48495</v>
+        <v>47905</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>65383</v>
+        <v>64688</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>69069</v>
+        <v>69807</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>145887</v>
+        <v>145717</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>133097</v>
+        <v>133420</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>194051</v>
+        <v>194560</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>99132</v>
+        <v>99936</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>201665</v>
+        <v>202540</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>173232</v>
+        <v>173788</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>250782</v>
+        <v>253166</v>
       </c>
     </row>
     <row r="32">
@@ -3263,40 +3263,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>96722</v>
+        <v>95271</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>145703</v>
+        <v>149114</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>117361</v>
+        <v>116539</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>248067</v>
+        <v>250623</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>149999</v>
+        <v>151497</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>316763</v>
+        <v>316969</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>286355</v>
+        <v>286611</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>432493</v>
+        <v>435122</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>259187</v>
+        <v>259980</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>480860</v>
+        <v>481451</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>419867</v>
+        <v>417736</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>699526</v>
+        <v>702495</v>
       </c>
     </row>
     <row r="35">
@@ -3307,40 +3307,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>139812</v>
+        <v>136638</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>201146</v>
+        <v>204464</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>163691</v>
+        <v>164071</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>310451</v>
+        <v>313178</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>201562</v>
+        <v>202829</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>387949</v>
+        <v>387033</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>360777</v>
+        <v>360555</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>493403</v>
+        <v>501722</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>325241</v>
+        <v>327296</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>568794</v>
+        <v>576244</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>509548</v>
+        <v>508150</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>789069</v>
+        <v>796742</v>
       </c>
     </row>
     <row r="36">
